--- a/Horas/Febrero 2012.xlsx
+++ b/Horas/Febrero 2012.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
   <si>
     <t>Fecha</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Día</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -824,19 +821,21 @@
       <c r="B11" s="15">
         <v>40953</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>15</v>
+      <c r="C11" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.75</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" s="12">
-        <v>0</v>
+        <f t="shared" ref="F11" si="3">IF(MINUTE(C11)&lt;=MINUTE(D11),IF(E11="NO",HOUR(D11)-HOUR(C11),HOUR(D11)-HOUR(C11)-1),IF(E11="NO",HOUR(D11)-HOUR(C11)-1,HOUR(D11)-HOUR(C11)-1-1))</f>
+        <v>9</v>
       </c>
       <c r="G11" s="12">
+        <f t="shared" ref="G11" si="4">IF(MINUTE(D11)-MINUTE(C11)&lt;0,MINUTE(D11)-MINUTE(C11)+60,MINUTE(D11)-MINUTE(C11))</f>
         <v>0</v>
       </c>
     </row>
@@ -857,7 +856,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" ref="F11:F22" si="3">IF(MINUTE(C12)&lt;=MINUTE(D12),IF(E12="NO",HOUR(D12)-HOUR(C12),HOUR(D12)-HOUR(C12)-1),IF(E12="NO",HOUR(D12)-HOUR(C12)-1,HOUR(D12)-HOUR(C12)-1-1))</f>
+        <f t="shared" ref="F12:F22" si="5">IF(MINUTE(C12)&lt;=MINUTE(D12),IF(E12="NO",HOUR(D12)-HOUR(C12),HOUR(D12)-HOUR(C12)-1),IF(E12="NO",HOUR(D12)-HOUR(C12)-1,HOUR(D12)-HOUR(C12)-1-1))</f>
         <v>9</v>
       </c>
       <c r="G12" s="12">
@@ -876,7 +875,7 @@
         <v>0.375</v>
       </c>
       <c r="D13" s="14">
-        <v>0.75</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>13</v>
@@ -899,14 +898,14 @@
         <v>0.375</v>
       </c>
       <c r="D14" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="1"/>
@@ -924,14 +923,14 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="1"/>
@@ -949,14 +948,14 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="1"/>
@@ -974,14 +973,14 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="1"/>
@@ -999,14 +998,14 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="1"/>
@@ -1024,14 +1023,14 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="1"/>
@@ -1049,14 +1048,14 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="12">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" si="1"/>
@@ -1074,14 +1073,14 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="1"/>
@@ -1099,14 +1098,14 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="1"/>

--- a/Horas/Febrero 2012.xlsx
+++ b/Horas/Febrero 2012.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
   <si>
     <t>Fecha</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Día</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -591,21 +594,19 @@
       <c r="B2" s="2">
         <v>40940</v>
       </c>
-      <c r="C2" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D2" s="14">
-        <v>0.75</v>
+      <c r="C2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="12">
-        <f t="shared" ref="F2:F10" si="0">IF(MINUTE(C2)&lt;=MINUTE(D2),IF(E2="NO",HOUR(D2)-HOUR(C2),HOUR(D2)-HOUR(C2)-1),IF(E2="NO",HOUR(D2)-HOUR(C2)-1,HOUR(D2)-HOUR(C2)-1-1))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G22" si="1">IF(MINUTE(D2)-MINUTE(C2)&lt;0,MINUTE(D2)-MINUTE(C2)+60,MINUTE(D2)-MINUTE(C2))</f>
         <v>0</v>
       </c>
     </row>
@@ -626,11 +627,11 @@
         <v>13</v>
       </c>
       <c r="F3" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F2:F10" si="0">IF(MINUTE(C3)&lt;=MINUTE(D3),IF(E3="NO",HOUR(D3)-HOUR(C3),HOUR(D3)-HOUR(C3)-1),IF(E3="NO",HOUR(D3)-HOUR(C3)-1,HOUR(D3)-HOUR(C3)-1-1))</f>
         <v>9</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G2:G22" si="1">IF(MINUTE(D3)-MINUTE(C3)&lt;0,MINUTE(D3)-MINUTE(C3)+60,MINUTE(D3)-MINUTE(C3))</f>
         <v>0</v>
       </c>
       <c r="H3" s="7"/>
@@ -875,7 +876,7 @@
         <v>0.375</v>
       </c>
       <c r="D13" s="14">
-        <v>0.72916666666666696</v>
+        <v>0.75</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>13</v>
@@ -898,18 +899,18 @@
         <v>0.375</v>
       </c>
       <c r="D14" s="14">
-        <v>0.72916666666666696</v>
+        <v>0.75</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="12">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -923,18 +924,18 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="14">
-        <v>0.72916666666666696</v>
+        <v>0.75</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -948,18 +949,18 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="14">
-        <v>0.72916666666666696</v>
+        <v>0.75</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -973,18 +974,18 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="14">
-        <v>0.72916666666666696</v>
+        <v>0.75</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -998,18 +999,18 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="14">
-        <v>0.72916666666666696</v>
+        <v>0.75</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1023,18 +1024,18 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="14">
-        <v>0.72916666666666696</v>
+        <v>0.75</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="12">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1048,18 +1049,18 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="14">
-        <v>0.72916666666666696</v>
+        <v>0.75</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="12">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1073,18 +1074,18 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="14">
-        <v>0.72916666666666696</v>
+        <v>0.75</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="12">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1098,18 +1099,18 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="14">
-        <v>0.72916666666666696</v>
+        <v>0.75</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="12">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1122,7 +1123,7 @@
       </c>
       <c r="G23" s="10">
         <f>SUM(G2:G22)/60</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1131,7 +1132,7 @@
       </c>
       <c r="F24" s="16">
         <f>ROUND(SUM(F23:G23),0)</f>
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G24" s="17"/>
     </row>

--- a/Horas/Febrero 2012.xlsx
+++ b/Horas/Febrero 2012.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>Fecha</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Sábado</t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,21 +620,19 @@
       <c r="B3" s="2">
         <v>40941</v>
       </c>
-      <c r="C3" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0.75</v>
+      <c r="C3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="12">
-        <f t="shared" ref="F2:F10" si="0">IF(MINUTE(C3)&lt;=MINUTE(D3),IF(E3="NO",HOUR(D3)-HOUR(C3),HOUR(D3)-HOUR(C3)-1),IF(E3="NO",HOUR(D3)-HOUR(C3)-1,HOUR(D3)-HOUR(C3)-1-1))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" ref="G2:G22" si="1">IF(MINUTE(D3)-MINUTE(C3)&lt;0,MINUTE(D3)-MINUTE(C3)+60,MINUTE(D3)-MINUTE(C3))</f>
         <v>0</v>
       </c>
       <c r="H3" s="7"/>
@@ -654,11 +655,11 @@
         <v>13</v>
       </c>
       <c r="F4" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F24" si="0">IF(MINUTE(C4)&lt;=MINUTE(D4),IF(E4="NO",HOUR(D4)-HOUR(C4),HOUR(D4)-HOUR(C4)-1),IF(E4="NO",HOUR(D4)-HOUR(C4)-1,HOUR(D4)-HOUR(C4)-1-1))</f>
         <v>9</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G4:G24" si="1">IF(MINUTE(D4)-MINUTE(C4)&lt;0,MINUTE(D4)-MINUTE(C4)+60,MINUTE(D4)-MINUTE(C4))</f>
         <v>0</v>
       </c>
     </row>
@@ -670,7 +671,7 @@
         <v>40945</v>
       </c>
       <c r="C5" s="14">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D5" s="14">
         <v>0.75</v>
@@ -680,7 +681,7 @@
       </c>
       <c r="F5" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="1"/>
@@ -695,21 +696,21 @@
         <v>40946</v>
       </c>
       <c r="C6" s="14">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="D6" s="14">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
@@ -721,21 +722,19 @@
       <c r="B7" s="2">
         <v>40947</v>
       </c>
-      <c r="C7" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0.75</v>
+      <c r="C7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" s="12">
-        <f t="shared" ref="F7:F8" si="2">IF(MINUTE(C7)&lt;=MINUTE(D7),IF(E7="NO",HOUR(D7)-HOUR(C7),HOUR(D7)-HOUR(C7)-1),IF(E7="NO",HOUR(D7)-HOUR(C7)-1,HOUR(D7)-HOUR(C7)-1-1))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -756,7 +755,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G8" s="12">
@@ -832,11 +831,11 @@
         <v>13</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" ref="F11" si="3">IF(MINUTE(C11)&lt;=MINUTE(D11),IF(E11="NO",HOUR(D11)-HOUR(C11),HOUR(D11)-HOUR(C11)-1),IF(E11="NO",HOUR(D11)-HOUR(C11)-1,HOUR(D11)-HOUR(C11)-1-1))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" ref="G11" si="4">IF(MINUTE(D11)-MINUTE(C11)&lt;0,MINUTE(D11)-MINUTE(C11)+60,MINUTE(D11)-MINUTE(C11))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -857,7 +856,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" ref="F12:F22" si="5">IF(MINUTE(C12)&lt;=MINUTE(D12),IF(E12="NO",HOUR(D12)-HOUR(C12),HOUR(D12)-HOUR(C12)-1),IF(E12="NO",HOUR(D12)-HOUR(C12)-1,HOUR(D12)-HOUR(C12)-1-1))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G12" s="12">
@@ -882,9 +881,11 @@
         <v>13</v>
       </c>
       <c r="F13" s="12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G13" s="12">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -905,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G14" s="12">
@@ -915,23 +916,23 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2">
-        <v>40959</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="15">
+        <v>40957</v>
       </c>
       <c r="C15" s="14">
         <v>0.375</v>
       </c>
       <c r="D15" s="14">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="1"/>
@@ -940,10 +941,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>40960</v>
+        <v>40959</v>
       </c>
       <c r="C16" s="14">
         <v>0.375</v>
@@ -955,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G16" s="12">
@@ -965,10 +966,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2">
-        <v>40961</v>
+        <v>40960</v>
       </c>
       <c r="C17" s="14">
         <v>0.375</v>
@@ -980,7 +981,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G17" s="12">
@@ -990,10 +991,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2">
-        <v>40962</v>
+        <v>40961</v>
       </c>
       <c r="C18" s="14">
         <v>0.375</v>
@@ -1005,7 +1006,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G18" s="12">
@@ -1015,10 +1016,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2">
-        <v>40963</v>
+        <v>40962</v>
       </c>
       <c r="C19" s="14">
         <v>0.375</v>
@@ -1030,7 +1031,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G19" s="12">
@@ -1040,10 +1041,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2">
-        <v>40966</v>
+        <v>40963</v>
       </c>
       <c r="C20" s="14">
         <v>0.375</v>
@@ -1055,7 +1056,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G20" s="12">
@@ -1065,80 +1066,130 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2">
-        <v>40967</v>
+        <v>40964</v>
       </c>
       <c r="C21" s="14">
         <v>0.375</v>
       </c>
       <c r="D21" s="14">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" ref="F21" si="2">IF(MINUTE(C21)&lt;=MINUTE(D21),IF(E21="NO",HOUR(D21)-HOUR(C21),HOUR(D21)-HOUR(C21)-1),IF(E21="NO",HOUR(D21)-HOUR(C21)-1,HOUR(D21)-HOUR(C21)-1-1))</f>
+        <v>8</v>
       </c>
       <c r="G21" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G21" si="3">IF(MINUTE(D21)-MINUTE(C21)&lt;0,MINUTE(D21)-MINUTE(C21)+60,MINUTE(D21)-MINUTE(C21))</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2">
+        <v>40966</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2">
+        <v>40967</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B24" s="2">
         <v>40968</v>
       </c>
-      <c r="C22" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D22" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="12">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="G22" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="5" t="s">
+      <c r="C24" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="13">
-        <f>SUM(F2:F22)</f>
-        <v>171</v>
-      </c>
-      <c r="G23" s="10">
-        <f>SUM(G2:G22)/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="4" t="s">
+      <c r="F25" s="13">
+        <f>SUM(F2:F24)</f>
+        <v>175</v>
+      </c>
+      <c r="G25" s="10">
+        <f>SUM(G2:G24)/60</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="16">
-        <f>ROUND(SUM(F23:G23),0)</f>
-        <v>171</v>
-      </c>
-      <c r="G24" s="17"/>
+      <c r="F26" s="16">
+        <f>ROUND(SUM(F25:G25),0)</f>
+        <v>176</v>
+      </c>
+      <c r="G26" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horas/Febrero 2012.xlsx
+++ b/Horas/Febrero 2012.xlsx
@@ -556,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,11 +655,11 @@
         <v>13</v>
       </c>
       <c r="F4" s="12">
-        <f t="shared" ref="F4:F24" si="0">IF(MINUTE(C4)&lt;=MINUTE(D4),IF(E4="NO",HOUR(D4)-HOUR(C4),HOUR(D4)-HOUR(C4)-1),IF(E4="NO",HOUR(D4)-HOUR(C4)-1,HOUR(D4)-HOUR(C4)-1-1))</f>
+        <f t="shared" ref="F4:F23" si="0">IF(MINUTE(C4)&lt;=MINUTE(D4),IF(E4="NO",HOUR(D4)-HOUR(C4),HOUR(D4)-HOUR(C4)-1),IF(E4="NO",HOUR(D4)-HOUR(C4)-1,HOUR(D4)-HOUR(C4)-1-1))</f>
         <v>9</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" ref="G4:G24" si="1">IF(MINUTE(D4)-MINUTE(C4)&lt;0,MINUTE(D4)-MINUTE(C4)+60,MINUTE(D4)-MINUTE(C4))</f>
+        <f t="shared" ref="G4:G23" si="1">IF(MINUTE(D4)-MINUTE(C4)&lt;0,MINUTE(D4)-MINUTE(C4)+60,MINUTE(D4)-MINUTE(C4))</f>
         <v>0</v>
       </c>
     </row>
@@ -746,7 +746,7 @@
         <v>40948</v>
       </c>
       <c r="C8" s="14">
-        <v>0.375</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="D8" s="14">
         <v>0.75</v>
@@ -756,11 +756,11 @@
       </c>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I8" s="8"/>
     </row>
@@ -771,21 +771,19 @@
       <c r="B9" s="2">
         <v>40949</v>
       </c>
-      <c r="C9" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0.75</v>
+      <c r="C9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -916,23 +914,23 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="15">
-        <v>40957</v>
+        <v>6</v>
+      </c>
+      <c r="B15" s="2">
+        <v>40959</v>
       </c>
       <c r="C15" s="14">
         <v>0.375</v>
       </c>
       <c r="D15" s="14">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="1"/>
@@ -941,10 +939,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2">
-        <v>40959</v>
+        <v>40960</v>
       </c>
       <c r="C16" s="14">
         <v>0.375</v>
@@ -966,10 +964,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2">
-        <v>40960</v>
+        <v>40961</v>
       </c>
       <c r="C17" s="14">
         <v>0.375</v>
@@ -991,10 +989,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2">
-        <v>40961</v>
+        <v>40962</v>
       </c>
       <c r="C18" s="14">
         <v>0.375</v>
@@ -1016,10 +1014,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2">
-        <v>40962</v>
+        <v>40963</v>
       </c>
       <c r="C19" s="14">
         <v>0.375</v>
@@ -1041,10 +1039,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>40963</v>
+        <v>40964</v>
       </c>
       <c r="C20" s="14">
         <v>0.375</v>
@@ -1056,45 +1054,45 @@
         <v>13</v>
       </c>
       <c r="F20" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F20" si="2">IF(MINUTE(C20)&lt;=MINUTE(D20),IF(E20="NO",HOUR(D20)-HOUR(C20),HOUR(D20)-HOUR(C20)-1),IF(E20="NO",HOUR(D20)-HOUR(C20)-1,HOUR(D20)-HOUR(C20)-1-1))</f>
         <v>9</v>
       </c>
       <c r="G20" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G20" si="3">IF(MINUTE(D20)-MINUTE(C20)&lt;0,MINUTE(D20)-MINUTE(C20)+60,MINUTE(D20)-MINUTE(C20))</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2">
-        <v>40964</v>
+        <v>40966</v>
       </c>
       <c r="C21" s="14">
         <v>0.375</v>
       </c>
       <c r="D21" s="14">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" ref="F21" si="2">IF(MINUTE(C21)&lt;=MINUTE(D21),IF(E21="NO",HOUR(D21)-HOUR(C21),HOUR(D21)-HOUR(C21)-1),IF(E21="NO",HOUR(D21)-HOUR(C21)-1,HOUR(D21)-HOUR(C21)-1-1))</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G21" s="12">
-        <f t="shared" ref="G21" si="3">IF(MINUTE(D21)-MINUTE(C21)&lt;0,MINUTE(D21)-MINUTE(C21)+60,MINUTE(D21)-MINUTE(C21))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2">
-        <v>40966</v>
+        <v>40967</v>
       </c>
       <c r="C22" s="14">
         <v>0.375</v>
@@ -1116,10 +1114,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2">
-        <v>40967</v>
+        <v>40968</v>
       </c>
       <c r="C23" s="14">
         <v>0.375</v>
@@ -1140,56 +1138,31 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="2">
-        <v>40968</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G24" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="13">
+        <f>SUM(F2:F23)</f>
+        <v>157</v>
+      </c>
+      <c r="G24" s="10">
+        <f>SUM(G2:G23)/60</f>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="13">
-        <f>SUM(F2:F24)</f>
-        <v>175</v>
-      </c>
-      <c r="G25" s="10">
-        <f>SUM(G2:G24)/60</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="16">
-        <f>ROUND(SUM(F25:G25),0)</f>
-        <v>176</v>
-      </c>
-      <c r="G26" s="17"/>
+      <c r="F25" s="16">
+        <f>ROUND(SUM(F24:G24),0)</f>
+        <v>158</v>
+      </c>
+      <c r="G25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horas/Febrero 2012.xlsx
+++ b/Horas/Febrero 2012.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="16">
   <si>
     <t>Fecha</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Sábado</t>
   </si>
 </sst>
 </file>
@@ -556,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,11 +652,11 @@
         <v>13</v>
       </c>
       <c r="F4" s="12">
-        <f t="shared" ref="F4:F23" si="0">IF(MINUTE(C4)&lt;=MINUTE(D4),IF(E4="NO",HOUR(D4)-HOUR(C4),HOUR(D4)-HOUR(C4)-1),IF(E4="NO",HOUR(D4)-HOUR(C4)-1,HOUR(D4)-HOUR(C4)-1-1))</f>
+        <f t="shared" ref="F4:F22" si="0">IF(MINUTE(C4)&lt;=MINUTE(D4),IF(E4="NO",HOUR(D4)-HOUR(C4),HOUR(D4)-HOUR(C4)-1),IF(E4="NO",HOUR(D4)-HOUR(C4)-1,HOUR(D4)-HOUR(C4)-1-1))</f>
         <v>9</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" ref="G4:G23" si="1">IF(MINUTE(D4)-MINUTE(C4)&lt;0,MINUTE(D4)-MINUTE(C4)+60,MINUTE(D4)-MINUTE(C4))</f>
+        <f t="shared" ref="G4:G22" si="1">IF(MINUTE(D4)-MINUTE(C4)&lt;0,MINUTE(D4)-MINUTE(C4)+60,MINUTE(D4)-MINUTE(C4))</f>
         <v>0</v>
       </c>
     </row>
@@ -699,18 +696,18 @@
         <v>0.4375</v>
       </c>
       <c r="D6" s="14">
-        <v>0.79166666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
@@ -795,7 +792,7 @@
         <v>40952</v>
       </c>
       <c r="C10" s="14">
-        <v>0.375</v>
+        <v>0.40625</v>
       </c>
       <c r="D10" s="14">
         <v>0.75</v>
@@ -805,11 +802,11 @@
       </c>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -820,21 +817,21 @@
         <v>40953</v>
       </c>
       <c r="C11" s="14">
-        <v>0.375</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D11" s="14">
-        <v>0.75</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -845,7 +842,7 @@
         <v>40954</v>
       </c>
       <c r="C12" s="14">
-        <v>0.375</v>
+        <v>0.40625</v>
       </c>
       <c r="D12" s="14">
         <v>0.75</v>
@@ -855,11 +852,11 @@
       </c>
       <c r="F12" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -870,21 +867,21 @@
         <v>40955</v>
       </c>
       <c r="C13" s="14">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="D13" s="14">
-        <v>0.75</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -895,7 +892,7 @@
         <v>40956</v>
       </c>
       <c r="C14" s="14">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="D14" s="14">
         <v>0.75</v>
@@ -905,11 +902,11 @@
       </c>
       <c r="F14" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -920,7 +917,7 @@
         <v>40959</v>
       </c>
       <c r="C15" s="14">
-        <v>0.375</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D15" s="14">
         <v>0.75</v>
@@ -930,11 +927,11 @@
       </c>
       <c r="F15" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -945,7 +942,7 @@
         <v>40960</v>
       </c>
       <c r="C16" s="14">
-        <v>0.375</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D16" s="14">
         <v>0.75</v>
@@ -955,11 +952,11 @@
       </c>
       <c r="F16" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -970,21 +967,21 @@
         <v>40961</v>
       </c>
       <c r="C17" s="14">
-        <v>0.375</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D17" s="14">
-        <v>0.75</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -995,7 +992,7 @@
         <v>40962</v>
       </c>
       <c r="C18" s="14">
-        <v>0.375</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D18" s="14">
         <v>0.75</v>
@@ -1005,11 +1002,11 @@
       </c>
       <c r="F18" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1019,83 +1016,79 @@
       <c r="B19" s="2">
         <v>40963</v>
       </c>
-      <c r="C19" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D19" s="14">
-        <v>0.75</v>
+      <c r="C19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G19" s="12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2">
-        <v>40964</v>
-      </c>
-      <c r="C20" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D20" s="14">
-        <v>0.75</v>
+        <v>40966</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F20" s="12">
-        <f t="shared" ref="F20" si="2">IF(MINUTE(C20)&lt;=MINUTE(D20),IF(E20="NO",HOUR(D20)-HOUR(C20),HOUR(D20)-HOUR(C20)-1),IF(E20="NO",HOUR(D20)-HOUR(C20)-1,HOUR(D20)-HOUR(C20)-1-1))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G20" s="12">
-        <f t="shared" ref="G20" si="3">IF(MINUTE(D20)-MINUTE(C20)&lt;0,MINUTE(D20)-MINUTE(C20)+60,MINUTE(D20)-MINUTE(C20))</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2">
-        <v>40966</v>
+        <v>40967</v>
       </c>
       <c r="C21" s="14">
-        <v>0.375</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="D21" s="14">
-        <v>0.75</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2">
-        <v>40967</v>
+        <v>40968</v>
       </c>
       <c r="C22" s="14">
-        <v>0.375</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D22" s="14">
         <v>0.75</v>
@@ -1105,64 +1098,39 @@
       </c>
       <c r="F22" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="2">
-        <v>40968</v>
-      </c>
-      <c r="C23" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G23" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="13">
+        <f>SUM(F2:F22)</f>
+        <v>104</v>
+      </c>
+      <c r="G23" s="10">
+        <f>SUM(G2:G22)/60</f>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="13">
-        <f>SUM(F2:F23)</f>
-        <v>157</v>
-      </c>
-      <c r="G24" s="10">
-        <f>SUM(G2:G23)/60</f>
-        <v>1.1666666666666667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="16">
-        <f>ROUND(SUM(F24:G24),0)</f>
-        <v>158</v>
-      </c>
-      <c r="G25" s="17"/>
+      <c r="F24" s="16">
+        <f>ROUND(SUM(F23:G23),0)</f>
+        <v>109</v>
+      </c>
+      <c r="G24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horas/Febrero 2012.xlsx
+++ b/Horas/Febrero 2012.xlsx
@@ -1063,21 +1063,21 @@
         <v>40967</v>
       </c>
       <c r="C21" s="14">
-        <v>0.44444444444444442</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D21" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="12">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1088,21 +1088,21 @@
         <v>40968</v>
       </c>
       <c r="C22" s="14">
-        <v>0.4513888888888889</v>
+        <v>0.4375</v>
       </c>
       <c r="D22" s="14">
-        <v>0.75</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="12">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1111,11 +1111,11 @@
       </c>
       <c r="F23" s="13">
         <f>SUM(F2:F22)</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G23" s="10">
         <f>SUM(G2:G22)/60</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="F24" s="16">
         <f>ROUND(SUM(F23:G23),0)</f>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G24" s="17"/>
     </row>
